--- a/기타자료/회의록.xlsx
+++ b/기타자료/회의록.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,10 +61,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>make tree from tree</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>15:00-17:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -78,6 +74,50 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:00-17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E3-1 #2420</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tja load, save설계, 해당 UI 설계 계획</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:00-18:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Barn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qt Designer 이미지 겹치기 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(fail)tja load하여 정보 띄우는 UI설계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tja load하여 보면 띄우는 UI설계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>make tree from TJA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -412,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -465,7 +505,7 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
@@ -473,19 +513,59 @@
         <v>43483</v>
       </c>
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
+        <v>43486</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="s">
-        <v>14</v>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
+        <v>43491</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
